--- a/city_coordinates.csv.xlsx
+++ b/city_coordinates.csv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\Weather Forecast Front-End Project\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\Weather Forecast Front-End Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1DFABB-A96F-4E0D-9F67-7AEFAAD752BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DCC62-522F-455F-A4FE-302AAB057F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1EA87CA-154E-4337-A2C1-73DA6ADCF61D}"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{C1EA87CA-154E-4337-A2C1-73DA6ADCF61D}"/>
   </bookViews>
   <sheets>
     <sheet name="city_coordinates" sheetId="1" r:id="rId1"/>
@@ -1051,291 +1051,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677B0E6-CB32-4A45-BF5A-65B72A1D197C}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
